--- a/personal_info.xlsx
+++ b/personal_info.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,237 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>성명</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>주민등록번호</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>주소</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>소속</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>직위</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>재직기간</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>담당업무</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>김민준</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>900506-1581223</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>서울특별시 강남구 역삼동 824-25</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>R&amp;D</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>대리</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2020.10.14~2022.06.06</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>소프트웨어엔지니어</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>김철수</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>940808-1042932</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>서울특별시 강남구 강남대로 92길 1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>HR</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>사원</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2019.04.02~2022.06.06</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>HR매니저</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>김영희</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>900909-2039423</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>서울특별시 관악구 관악로6길 2</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>R&amp;D</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>부장</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2017.03.28~2022.06.06</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>하드웨어매니저</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>이서준</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>921010-1204281</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>서울특별시 동작구 국사봉2길 1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>AD</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>대리</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2018.08.18~2022.06.06</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>회계매니저</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>장다인</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001212-4028324</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>서울특별시 구로구 도림로100</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>AD</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>사원</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2022.01.05~2022.06.06</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>회계매니저</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>